--- a/contract_generator/data/Allowance Payment_Template.xlsx
+++ b/contract_generator/data/Allowance Payment_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/contract_automation/contract_generator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/contract_auto/contract_generator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9056631-DC13-9342-BE64-530F4DD1FD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15563DC8-DE03-464C-852E-B70BDC5CFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,273 +20,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
-  <si>
-    <t>이메일</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>휴대폰번호</t>
   </si>
   <si>
+    <t>010-5942-4150</t>
+  </si>
+  <si>
+    <t>010-5054-9880</t>
+  </si>
+  <si>
+    <t>010-3300-1352</t>
+  </si>
+  <si>
+    <t>010-2822-5582</t>
+  </si>
+  <si>
+    <t>010-7815-4543</t>
+  </si>
+  <si>
+    <t>010-1723-3335</t>
+  </si>
+  <si>
+    <t>010-3556-1088</t>
+  </si>
+  <si>
+    <t>010-3223-6138</t>
+  </si>
+  <si>
+    <t>010-3729-9566</t>
+  </si>
+  <si>
+    <t>010-7225-8578</t>
+  </si>
+  <si>
+    <t>홍길동70</t>
+  </si>
+  <si>
+    <t>홍길동92</t>
+  </si>
+  <si>
+    <t>홍길동64</t>
+  </si>
+  <si>
+    <t>홍길동25</t>
+  </si>
+  <si>
+    <t>홍길동14</t>
+  </si>
+  <si>
+    <t>홍길동82</t>
+  </si>
+  <si>
+    <t>홍길동75</t>
+  </si>
+  <si>
+    <t>홍길동3</t>
+  </si>
+  <si>
+    <t>홍길동41</t>
+  </si>
+  <si>
+    <t>홍길동95</t>
+  </si>
+  <si>
+    <t>일용직 근로자 계약</t>
+  </si>
+  <si>
+    <t>112708-4235275</t>
+  </si>
+  <si>
+    <t>818490-3863222</t>
+  </si>
+  <si>
+    <t>636374-3628217</t>
+  </si>
+  <si>
+    <t>534610-2083124</t>
+  </si>
+  <si>
+    <t>702692-7722621</t>
+  </si>
+  <si>
+    <t>811519-8681994</t>
+  </si>
+  <si>
+    <t>307208-8942435</t>
+  </si>
+  <si>
+    <t>259004-1953063</t>
+  </si>
+  <si>
+    <t>763387-7539601</t>
+  </si>
+  <si>
+    <t>105539-7329309</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 410길 95</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 883길 45</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 370길 59</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 392길 72</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 772길 14</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 346길 34</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 116길 85</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 609길 34</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 130길 9</t>
+  </si>
+  <si>
+    <t>서울시 강남구 테헤란로 359길 76</t>
+  </si>
+  <si>
+    <t>우리은행</t>
+  </si>
+  <si>
+    <t>신한은행</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>국민은행</t>
+  </si>
+  <si>
+    <t>하나은행</t>
+  </si>
+  <si>
+    <t>602229622</t>
+  </si>
+  <si>
+    <t>181493454</t>
+  </si>
+  <si>
+    <t>363308642</t>
+  </si>
+  <si>
+    <t>446654926</t>
+  </si>
+  <si>
+    <t>847976983</t>
+  </si>
+  <si>
+    <t>302974079</t>
+  </si>
+  <si>
+    <t>615878372</t>
+  </si>
+  <si>
+    <t>612301480</t>
+  </si>
+  <si>
+    <t>450139288</t>
+  </si>
+  <si>
+    <t>517460253</t>
+  </si>
+  <si>
     <t>이름</t>
-  </si>
-  <si>
-    <t>개인/기업</t>
-  </si>
-  <si>
-    <t>계약명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>사업자등록번호</t>
-  </si>
-  <si>
-    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과업명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과업일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과업내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예금주</t>
-  </si>
-  <si>
-    <t>은행명</t>
-  </si>
-  <si>
-    <t>계좌번호</t>
-  </si>
-  <si>
-    <t>user726@example.com</t>
-  </si>
-  <si>
-    <t>user354@example.com</t>
-  </si>
-  <si>
-    <t>user329@example.com</t>
-  </si>
-  <si>
-    <t>user120@example.com</t>
-  </si>
-  <si>
-    <t>user507@example.com</t>
-  </si>
-  <si>
-    <t>user954@example.com</t>
-  </si>
-  <si>
-    <t>user81@example.com</t>
-  </si>
-  <si>
-    <t>user797@example.com</t>
-  </si>
-  <si>
-    <t>user715@example.com</t>
-  </si>
-  <si>
-    <t>user830@example.com</t>
-  </si>
-  <si>
-    <t>010-5942-4150</t>
-  </si>
-  <si>
-    <t>010-5054-9880</t>
-  </si>
-  <si>
-    <t>010-3300-1352</t>
-  </si>
-  <si>
-    <t>010-2822-5582</t>
-  </si>
-  <si>
-    <t>010-7815-4543</t>
-  </si>
-  <si>
-    <t>010-1723-3335</t>
-  </si>
-  <si>
-    <t>010-3556-1088</t>
-  </si>
-  <si>
-    <t>010-3223-6138</t>
-  </si>
-  <si>
-    <t>010-3729-9566</t>
-  </si>
-  <si>
-    <t>010-7225-8578</t>
-  </si>
-  <si>
-    <t>홍길동70</t>
-  </si>
-  <si>
-    <t>홍길동92</t>
-  </si>
-  <si>
-    <t>홍길동64</t>
-  </si>
-  <si>
-    <t>홍길동25</t>
-  </si>
-  <si>
-    <t>홍길동14</t>
-  </si>
-  <si>
-    <t>홍길동82</t>
-  </si>
-  <si>
-    <t>홍길동75</t>
-  </si>
-  <si>
-    <t>홍길동3</t>
-  </si>
-  <si>
-    <t>홍길동41</t>
-  </si>
-  <si>
-    <t>홍길동95</t>
-  </si>
-  <si>
-    <t>기업</t>
-  </si>
-  <si>
-    <t>개인</t>
-  </si>
-  <si>
-    <t>일용직 근로자 계약</t>
-  </si>
-  <si>
-    <t>112708-4235275</t>
-  </si>
-  <si>
-    <t>818490-3863222</t>
-  </si>
-  <si>
-    <t>636374-3628217</t>
-  </si>
-  <si>
-    <t>534610-2083124</t>
-  </si>
-  <si>
-    <t>702692-7722621</t>
-  </si>
-  <si>
-    <t>811519-8681994</t>
-  </si>
-  <si>
-    <t>307208-8942435</t>
-  </si>
-  <si>
-    <t>259004-1953063</t>
-  </si>
-  <si>
-    <t>763387-7539601</t>
-  </si>
-  <si>
-    <t>105539-7329309</t>
-  </si>
-  <si>
-    <t>757-18-28803</t>
-  </si>
-  <si>
-    <t>147-83-56566</t>
-  </si>
-  <si>
-    <t>220-21-25724</t>
-  </si>
-  <si>
-    <t>681-68-45393</t>
-  </si>
-  <si>
-    <t>549-14-83924</t>
-  </si>
-  <si>
-    <t>839-71-53024</t>
-  </si>
-  <si>
-    <t>765-91-17608</t>
-  </si>
-  <si>
-    <t>838-19-75375</t>
-  </si>
-  <si>
-    <t>863-13-98273</t>
-  </si>
-  <si>
-    <t>817-64-74775</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 410길 95</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 883길 45</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 370길 59</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 392길 72</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 772길 14</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 346길 34</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 116길 85</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 609길 34</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 130길 9</t>
-  </si>
-  <si>
-    <t>서울시 강남구 테헤란로 359길 76</t>
-  </si>
-  <si>
-    <t>우리은행</t>
-  </si>
-  <si>
-    <t>신한은행</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>국민은행</t>
-  </si>
-  <si>
-    <t>하나은행</t>
-  </si>
-  <si>
-    <t>602229622</t>
-  </si>
-  <si>
-    <t>181493454</t>
-  </si>
-  <si>
-    <t>363308642</t>
-  </si>
-  <si>
-    <t>446654926</t>
-  </si>
-  <si>
-    <t>847976983</t>
-  </si>
-  <si>
-    <t>302974079</t>
-  </si>
-  <si>
-    <t>615878372</t>
-  </si>
-  <si>
-    <t>612301480</t>
-  </si>
-  <si>
-    <t>450139288</t>
-  </si>
-  <si>
-    <t>517460253</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득공제액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심사위원 참석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자문위원 참석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -325,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,15 +304,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -661,410 +632,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
+      <c r="F2" s="3">
+        <v>45296</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>500000</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45296</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>500000</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45296</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>500000</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45296</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5">
+        <v>500000</v>
+      </c>
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45296</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
         <v>68</v>
       </c>
+      <c r="H6">
+        <v>500000</v>
+      </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45296</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <v>500000</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45296</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="H8">
+        <v>500000</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45296</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>500000</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45296</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>500000</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45296</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>500000</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>
